--- a/data/hotels_by_city/Miami/Miami_shard_532.xlsx
+++ b/data/hotels_by_city/Miami/Miami_shard_532.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,497 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
+    <t>10/18/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r625986567-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>34227</t>
+  </si>
+  <si>
+    <t>1190286</t>
+  </si>
+  <si>
+    <t>625986567</t>
+  </si>
+  <si>
+    <t>10/17/2018</t>
+  </si>
+  <si>
+    <t>Good location but not a great hotel. Consider other options first.</t>
+  </si>
+  <si>
+    <t>Right across the street from the beach. Plenty of rooms with a beach view. Large place—two towers.  One tower has the concierge, front desk, pool and a full restaurant. The other does not. When booking suggest you request a specific tower that fits your wants. Rooms were average. Interestingly, when I checked in, the representative told me that my room was recently refreshed. I could find no evidence of such. Charging station was retrofitted and worn—plugs fell out of it as they would not fit snugly.  Bed was average. I would give 3.5 stars if the site would allow for halves.</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r622748397-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>622748397</t>
+  </si>
+  <si>
+    <t>10/06/2018</t>
+  </si>
+  <si>
+    <t>Excellent service!</t>
+  </si>
+  <si>
+    <t>Met Fatiha in the hallway as she was picking up room service trays and she was so friendly and quick to assist me with my request.Tashelle at the Front Desk was just as friendly and welcoming at check in and later when I came down to get change for valet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r625978979-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>625978979</t>
+  </si>
+  <si>
+    <t>So many issues, all of them human</t>
+  </si>
+  <si>
+    <t>i'll be brief... hotel and amenities? meh. first let me say the front desk staff were helpful and efficient. the concierge, ditto. Other hotel staff were friendly and everyone said "hi" or "hello" as passing. The rooms? Fair, but nothing special. My wife didn't care that the bathroom door was louvered - guess that was to give the place a tropical rustic air. The beds were comfortable, but with the humidity the sheets felt damp to the touch. And, if you think a $28 breakfast buffet or a $12 margarita is reasonable you're either a business traveller with an expense account or have more money than we do. Such is life.
+And to the big issue...Briefly, we had a conversation with two guests from colorado who had stayed with their son at the westin while he attended a body building event. as the story goes the competitors were advised to shower off the tanning spray before retiring for the night. He didn't, but mom and pop weren't aware of this particular issue and the sheets were discolored - bear in mind, this is a water-soluble product -or- you wouldn't be able to wash it off...This couple had a $900 charge on their credit card to pay for a ($100) set of linens...bad enough, but not the biggest problem...
+We were finishing our business when the manager and his assistant approached mom 'n pop...in the lobby...and proceeded to have their "discussion",...i'll be brief... hotel and amenities? meh. first let me say the front desk staff were helpful and efficient. the concierge, ditto. Other hotel staff were friendly and everyone said "hi" or "hello" as passing. The rooms? Fair, but nothing special. My wife didn't care that the bathroom door was louvered - guess that was to give the place a tropical rustic air. The beds were comfortable, but with the humidity the sheets felt damp to the touch. And, if you think a $28 breakfast buffet or a $12 margarita is reasonable you're either a business traveller with an expense account or have more money than we do. Such is life.And to the big issue...Briefly, we had a conversation with two guests from colorado who had stayed with their son at the westin while he attended a body building event. as the story goes the competitors were advised to shower off the tanning spray before retiring for the night. He didn't, but mom and pop weren't aware of this particular issue and the sheets were discolored - bear in mind, this is a water-soluble product -or- you wouldn't be able to wash it off...This couple had a $900 charge on their credit card to pay for a ($100) set of linens...bad enough, but not the biggest problem...We were finishing our business when the manager and his assistant approached mom 'n pop...in the lobby...and proceeded to have their "discussion", in public, about the charge. Both men were rude, ignorant, and condescending to &gt;&gt;their guests&lt;&lt;. not much pisses me off because, having worked with the public, i know how difficult some people can be. Mom 'n pop weren't. Yet, manager1 and manager2 seemed to take every opportunity to make it known how important they were and how they didn't care what the objections to how ludicrous the charges were. Worse, the fat-man manager continued to invade the personal space of both to make his point clear...Suggestions to Westin yuppity-yups:1. Fire manager 1 &amp; 2. They are absolutely terrible in their dealing with guests. No amount of remedial training could salvage them, especially for the way they handled themselves in public 12' from other guests and in front of other staff.2. Fix your elevators. One stopped between floors and a second sounds like wounded hippo on it's up 'n down journey.3. Review your prices.4. Yet another annoying $37 "Resort fee" and, to top off that insult, $4.44 tax added to that. 5. There are modern devices called a de-humidifiers. Get one.MoreShow less</t>
+  </si>
+  <si>
+    <t>i'll be brief... hotel and amenities? meh. first let me say the front desk staff were helpful and efficient. the concierge, ditto. Other hotel staff were friendly and everyone said "hi" or "hello" as passing. The rooms? Fair, but nothing special. My wife didn't care that the bathroom door was louvered - guess that was to give the place a tropical rustic air. The beds were comfortable, but with the humidity the sheets felt damp to the touch. And, if you think a $28 breakfast buffet or a $12 margarita is reasonable you're either a business traveller with an expense account or have more money than we do. Such is life.
+And to the big issue...Briefly, we had a conversation with two guests from colorado who had stayed with their son at the westin while he attended a body building event. as the story goes the competitors were advised to shower off the tanning spray before retiring for the night. He didn't, but mom and pop weren't aware of this particular issue and the sheets were discolored - bear in mind, this is a water-soluble product -or- you wouldn't be able to wash it off...This couple had a $900 charge on their credit card to pay for a ($100) set of linens...bad enough, but not the biggest problem...
+We were finishing our business when the manager and his assistant approached mom 'n pop...in the lobby...and proceeded to have their "discussion",...i'll be brief... hotel and amenities? meh. first let me say the front desk staff were helpful and efficient. the concierge, ditto. Other hotel staff were friendly and everyone said "hi" or "hello" as passing. The rooms? Fair, but nothing special. My wife didn't care that the bathroom door was louvered - guess that was to give the place a tropical rustic air. The beds were comfortable, but with the humidity the sheets felt damp to the touch. And, if you think a $28 breakfast buffet or a $12 margarita is reasonable you're either a business traveller with an expense account or have more money than we do. Such is life.And to the big issue...Briefly, we had a conversation with two guests from colorado who had stayed with their son at the westin while he attended a body building event. as the story goes the competitors were advised to shower off the tanning spray before retiring for the night. He didn't, but mom and pop weren't aware of this particular issue and the sheets were discolored - bear in mind, this is a water-soluble product -or- you wouldn't be able to wash it off...This couple had a $900 charge on their credit card to pay for a ($100) set of linens...bad enough, but not the biggest problem...We were finishing our business when the manager and his assistant approached mom 'n pop...in the lobby...and proceeded to have their "discussion", in public, about the charge. Both men were rude, ignorant, and condescending to &gt;&gt;their guests&lt;&lt;. not much pisses me off because, having worked with the public, i know how difficult some people can be. Mom 'n pop weren't. Yet, manager1 and manager2 seemed to take every opportunity to make it known how important they were and how they didn't care what the objections to how ludicrous the charges were. Worse, the fat-man manager continued to invade the personal space of both to make his point clear...Suggestions to Westin yuppity-yups:1. Fire manager 1 &amp; 2. They are absolutely terrible in their dealing with guests. No amount of remedial training could salvage them, especially for the way they handled themselves in public 12' from other guests and in front of other staff.2. Fix your elevators. One stopped between floors and a second sounds like wounded hippo on it's up 'n down journey.3. Review your prices.4. Yet another annoying $37 "Resort fee" and, to top off that insult, $4.44 tax added to that. 5. There are modern devices called a de-humidifiers. Get one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r625978894-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>625978894</t>
+  </si>
+  <si>
+    <t>BEST EXPERIENCE EVER!!!! Hands down.</t>
+  </si>
+  <si>
+    <t>To make a long story short, my fiancé and I were supposed to get married in Panama City this past weekend and two days before our trip we were told we had to cancel the wedding due to hurricane Michael. We are from NH and we had around 45 guests traveling with us. Last minute, we were able to call around and found out that The Westin in Fort Lauderdale had several rooms available for us and our guests. When we arrived, we were greeted by so many lovely employees! They were extremely nice to us and not one of my guests had anything bad to say. The actual hotel was so clean and had so many amenities to offer their guests. Our room was BEYOND what we imagined. The view of the ocean and the structure of the room itself was breathtaking. The pool area was so fun, we spent most of our time there. They have a bar, Waves Bar and Grill, that is inside and outside near the pool and the servers were amazing! Rachel was our favorite, she really made all of my guests happy and we enjoyed every minute of being there. 
+After gathering our emotions together and grieving over the cancelation of the wedding; we were able to plan another one at The Westin within 48 hours!!!! Thanks to the wonderful and amazing Daniel, Kristy F, Lisa R and Kira C ; we were...To make a long story short, my fiancé and I were supposed to get married in Panama City this past weekend and two days before our trip we were told we had to cancel the wedding due to hurricane Michael. We are from NH and we had around 45 guests traveling with us. Last minute, we were able to call around and found out that The Westin in Fort Lauderdale had several rooms available for us and our guests. When we arrived, we were greeted by so many lovely employees! They were extremely nice to us and not one of my guests had anything bad to say. The actual hotel was so clean and had so many amenities to offer their guests. Our room was BEYOND what we imagined. The view of the ocean and the structure of the room itself was breathtaking. The pool area was so fun, we spent most of our time there. They have a bar, Waves Bar and Grill, that is inside and outside near the pool and the servers were amazing! Rachel was our favorite, she really made all of my guests happy and we enjoyed every minute of being there. After gathering our emotions together and grieving over the cancelation of the wedding; we were able to plan another one at The Westin within 48 hours!!!! Thanks to the wonderful and amazing Daniel, Kristy F, Lisa R and Kira C ; we were able to make this past weekend one for the books, and we will never forget it! Everyone we met at the Westin was pleasant and polite. They helped us with anything we needed and were very accommodating. Even the service at Lona ( the hotels Mexican restaurant) was outstanding and exceeding our expectations! Some of the people that touched our hearts there were Romel, Nelson and Gernie. They helped us with food and a place for our guests after the wedding to join together and relax! At the end of our vacation here, we felt like we knew these employees. It was sad to leave, everyone was so nice and filled with joy. You could tell they truly loved their jobs and wanted to help and please their guests. My husband and I WILL be returning to The Westin for sure! It was a pleasure and we cannot wait to come back. We thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>To make a long story short, my fiancé and I were supposed to get married in Panama City this past weekend and two days before our trip we were told we had to cancel the wedding due to hurricane Michael. We are from NH and we had around 45 guests traveling with us. Last minute, we were able to call around and found out that The Westin in Fort Lauderdale had several rooms available for us and our guests. When we arrived, we were greeted by so many lovely employees! They were extremely nice to us and not one of my guests had anything bad to say. The actual hotel was so clean and had so many amenities to offer their guests. Our room was BEYOND what we imagined. The view of the ocean and the structure of the room itself was breathtaking. The pool area was so fun, we spent most of our time there. They have a bar, Waves Bar and Grill, that is inside and outside near the pool and the servers were amazing! Rachel was our favorite, she really made all of my guests happy and we enjoyed every minute of being there. 
+After gathering our emotions together and grieving over the cancelation of the wedding; we were able to plan another one at The Westin within 48 hours!!!! Thanks to the wonderful and amazing Daniel, Kristy F, Lisa R and Kira C ; we were...To make a long story short, my fiancé and I were supposed to get married in Panama City this past weekend and two days before our trip we were told we had to cancel the wedding due to hurricane Michael. We are from NH and we had around 45 guests traveling with us. Last minute, we were able to call around and found out that The Westin in Fort Lauderdale had several rooms available for us and our guests. When we arrived, we were greeted by so many lovely employees! They were extremely nice to us and not one of my guests had anything bad to say. The actual hotel was so clean and had so many amenities to offer their guests. Our room was BEYOND what we imagined. The view of the ocean and the structure of the room itself was breathtaking. The pool area was so fun, we spent most of our time there. They have a bar, Waves Bar and Grill, that is inside and outside near the pool and the servers were amazing! Rachel was our favorite, she really made all of my guests happy and we enjoyed every minute of being there. After gathering our emotions together and grieving over the cancelation of the wedding; we were able to plan another one at The Westin within 48 hours!!!! Thanks to the wonderful and amazing Daniel, Kristy F, Lisa R and Kira C ; we were able to make this past weekend one for the books, and we will never forget it! Everyone we met at the Westin was pleasant and polite. They helped us with anything we needed and were very accommodating. Even the service at Lona ( the hotels Mexican restaurant) was outstanding and exceeding our expectations! Some of the people that touched our hearts there were Romel, Nelson and Gernie. They helped us with food and a place for our guests after the wedding to join together and relax! At the end of our vacation here, we felt like we knew these employees. It was sad to leave, everyone was so nice and filled with joy. You could tell they truly loved their jobs and wanted to help and please their guests. My husband and I WILL be returning to The Westin for sure! It was a pleasure and we cannot wait to come back. We thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r625604641-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>625604641</t>
+  </si>
+  <si>
+    <t>10/16/2018</t>
+  </si>
+  <si>
+    <t>Best Service Ever!!</t>
+  </si>
+  <si>
+    <t>We arrived and were greeted by Iris! She was amazing, and pleases you with her great mood.You will definitely be happy at The Westin Ft. Beach resort. They have super nice restaurants and fantastic views. Will definitely be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r625509652-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>625509652</t>
+  </si>
+  <si>
+    <t>Discriminated Agaisnt and Unpleasant Experience</t>
+  </si>
+  <si>
+    <t>On Saturday Oct 13th 2018 around 2pm mid way through my weekend stay, I was wrongfully accused and kicked out of the Westin @ Ft Lauderdale Beach Resort based on allegations of me accumulating $1100 dollars worth of damage to sheets and towels due to a spray tan i had on for a competition without any real proof.. 
+This was the host hotel for a bodybuilding competition and multiple competitors were staying at this hotel.
+I am melanin skin toned and tan is water soluble. The Westin wanted to charge my card and have me agree to damages based on two pictures presented to me By Manager Robert Munn that was not identifiable as being my room. . I could not be certain it was my room vs one of the other competitors. Robert then proceeded to say that i would need to leave if i was unwilling to pay for the damages. When I asked to go back up stairs and get my belongings to leave the premises the Manager Robert Munn advised me that i was unable to do so. After demanding that I be allowed up to get my things he finally said he would have security escort me upstairs! This all took place in front of the concierge desks out in the open where everyone can hear and see what was taking place. At this point i felt like a criminal and discriminated agianst. I want...On Saturday Oct 13th 2018 around 2pm mid way through my weekend stay, I was wrongfully accused and kicked out of the Westin @ Ft Lauderdale Beach Resort based on allegations of me accumulating $1100 dollars worth of damage to sheets and towels due to a spray tan i had on for a competition without any real proof.. This was the host hotel for a bodybuilding competition and multiple competitors were staying at this hotel.I am melanin skin toned and tan is water soluble. The Westin wanted to charge my card and have me agree to damages based on two pictures presented to me By Manager Robert Munn that was not identifiable as being my room. . I could not be certain it was my room vs one of the other competitors. Robert then proceeded to say that i would need to leave if i was unwilling to pay for the damages. When I asked to go back up stairs and get my belongings to leave the premises the Manager Robert Munn advised me that i was unable to do so. After demanding that I be allowed up to get my things he finally said he would have security escort me upstairs! This all took place in front of the concierge desks out in the open where everyone can hear and see what was taking place. At this point i felt like a criminal and discriminated agianst. I want to emphasize that this all happened about an hour after I had just got off stage from my First Place Wins. A time to celebrate with friends quickly turned into a nightmare...Needless to say this ruined my stay and my day.. Im still trying to wrap my mind around it all.. I have gotten my attorney involved because no one should be treated like this at what is supposed to be a prestige hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>On Saturday Oct 13th 2018 around 2pm mid way through my weekend stay, I was wrongfully accused and kicked out of the Westin @ Ft Lauderdale Beach Resort based on allegations of me accumulating $1100 dollars worth of damage to sheets and towels due to a spray tan i had on for a competition without any real proof.. 
+This was the host hotel for a bodybuilding competition and multiple competitors were staying at this hotel.
+I am melanin skin toned and tan is water soluble. The Westin wanted to charge my card and have me agree to damages based on two pictures presented to me By Manager Robert Munn that was not identifiable as being my room. . I could not be certain it was my room vs one of the other competitors. Robert then proceeded to say that i would need to leave if i was unwilling to pay for the damages. When I asked to go back up stairs and get my belongings to leave the premises the Manager Robert Munn advised me that i was unable to do so. After demanding that I be allowed up to get my things he finally said he would have security escort me upstairs! This all took place in front of the concierge desks out in the open where everyone can hear and see what was taking place. At this point i felt like a criminal and discriminated agianst. I want...On Saturday Oct 13th 2018 around 2pm mid way through my weekend stay, I was wrongfully accused and kicked out of the Westin @ Ft Lauderdale Beach Resort based on allegations of me accumulating $1100 dollars worth of damage to sheets and towels due to a spray tan i had on for a competition without any real proof.. This was the host hotel for a bodybuilding competition and multiple competitors were staying at this hotel.I am melanin skin toned and tan is water soluble. The Westin wanted to charge my card and have me agree to damages based on two pictures presented to me By Manager Robert Munn that was not identifiable as being my room. . I could not be certain it was my room vs one of the other competitors. Robert then proceeded to say that i would need to leave if i was unwilling to pay for the damages. When I asked to go back up stairs and get my belongings to leave the premises the Manager Robert Munn advised me that i was unable to do so. After demanding that I be allowed up to get my things he finally said he would have security escort me upstairs! This all took place in front of the concierge desks out in the open where everyone can hear and see what was taking place. At this point i felt like a criminal and discriminated agianst. I want to emphasize that this all happened about an hour after I had just got off stage from my First Place Wins. A time to celebrate with friends quickly turned into a nightmare...Needless to say this ruined my stay and my day.. Im still trying to wrap my mind around it all.. I have gotten my attorney involved because no one should be treated like this at what is supposed to be a prestige hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r625337341-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>625337341</t>
+  </si>
+  <si>
+    <t>Thank youuuuu Melissaaa</t>
+  </si>
+  <si>
+    <t>Ladies trip couldn’t have been any better! We arrived pretty early expecting to have to store our bags and wait for a room but the front desk team couldn’t have been more accommodating. Melissa was able to not only find us a room but a beautifulll ocean view room in the south tower! &amp; Lona was sooo good and the bar stays open late ;) Wish I could remember the bartenders name. Thank you Westin Team and Melissa, we will be back for you girl! Keep it up!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r625003117-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>625003117</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>Saved Us After Long Cruise!</t>
+  </si>
+  <si>
+    <t>Melissa provided outstanding service for our family.  On our vacation, we stayed at the Palms in Miami, went on a 5 day cruise with Royal Caribbean, and stayed at the Westin for one night when we returned.  (Before flying back to Indiana.)The Westin was incredible.  We checked in at 9:30AM on a Friday morning and Melissa was able to get us our ocean view room immediately.  She also gave us a complimentary late check-out the following day at 12:30. Because we were so tired from the cruise, my 2 children, wife, and I were able to sleep in our room that morning and later visit the pool for lunch.  The restaurant that replaced Shula’s Steakhouse, Lona, was excellent.  I posted a 5 star review for Lona as well.  We had breakfast at the Westin, as well as lunch, in two other restaurants within the hotel.  We visited 3 restaurants total and never left the building, other than to visit the pool and beach.People were much more down-to-earth than the Palms we stayed at in Miami, building was kept up-to-date, room was in excellent condition (has been recently renovated in the past couple of years), and amenities were abundant.If we were to do it again, we would stay at the Westin not just after our cruise, but BEFORE our cruise as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Melissa provided outstanding service for our family.  On our vacation, we stayed at the Palms in Miami, went on a 5 day cruise with Royal Caribbean, and stayed at the Westin for one night when we returned.  (Before flying back to Indiana.)The Westin was incredible.  We checked in at 9:30AM on a Friday morning and Melissa was able to get us our ocean view room immediately.  She also gave us a complimentary late check-out the following day at 12:30. Because we were so tired from the cruise, my 2 children, wife, and I were able to sleep in our room that morning and later visit the pool for lunch.  The restaurant that replaced Shula’s Steakhouse, Lona, was excellent.  I posted a 5 star review for Lona as well.  We had breakfast at the Westin, as well as lunch, in two other restaurants within the hotel.  We visited 3 restaurants total and never left the building, other than to visit the pool and beach.People were much more down-to-earth than the Palms we stayed at in Miami, building was kept up-to-date, room was in excellent condition (has been recently renovated in the past couple of years), and amenities were abundant.If we were to do it again, we would stay at the Westin not just after our cruise, but BEFORE our cruise as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r624715983-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>624715983</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>The hotel was very nice with a lovely pool and bar area. The beach was unfortunately across the road and not as swimming friendly as hoped. Staff were great. The happy hour menu was a let down in that you end up paying full price based on misleading information. For example Sam Adams not being a domestic beer if seasonal. That took a star off, but otherwise a good experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r624236011-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>624236011</t>
+  </si>
+  <si>
+    <t>10/12/2018</t>
+  </si>
+  <si>
+    <t>Convention Hotel</t>
+  </si>
+  <si>
+    <t>We had a lovely beachfront room and who doesn't like waking up to a beautiful sunset and sounds of waves.   There are no balcony rooms (I asked the front desk)  you can open the sliding door and it looks like a balcony but you cannot step outside.  The wifi was very spotty and my first night I could not login and had to go downstairs and they referred me to the IT desk which has a message regarding what to do if having issues and I was able to get in with no issues after.   However it was still spotty on our phones.  There was not any hand soap or wash clothes and when I asked housekeeping she was able to produce one bar and must have found some because she left a supply the next day.  Housekeeping was very good.  This is a convention hotel, there was 1 or 2 everyday of our stay and it is a bigger hotel, we had to take two elevators to get to our room.  There is also no hot tub by the pool and the one in the spa was not working. There is one big pool and no adult designated pool, it didn't bother me but lots of kids splashing  due to a kiddie party.  The crosswalk to the beach was not open so you had to take the elevator and cross the street, not a big deal but lots of...We had a lovely beachfront room and who doesn't like waking up to a beautiful sunset and sounds of waves.   There are no balcony rooms (I asked the front desk)  you can open the sliding door and it looks like a balcony but you cannot step outside.  The wifi was very spotty and my first night I could not login and had to go downstairs and they referred me to the IT desk which has a message regarding what to do if having issues and I was able to get in with no issues after.   However it was still spotty on our phones.  There was not any hand soap or wash clothes and when I asked housekeeping she was able to produce one bar and must have found some because she left a supply the next day.  Housekeeping was very good.  This is a convention hotel, there was 1 or 2 everyday of our stay and it is a bigger hotel, we had to take two elevators to get to our room.  There is also no hot tub by the pool and the one in the spa was not working. There is one big pool and no adult designated pool, it didn't bother me but lots of kids splashing  due to a kiddie party.  The crosswalk to the beach was not open so you had to take the elevator and cross the street, not a big deal but lots of seaweed on the beach.   You would see people go down and than return to the pool area.   There is a Starbucks downstairs and close to lots of restaurants, however I will try another hotel my next visit.  I missed having that outside balcony!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We had a lovely beachfront room and who doesn't like waking up to a beautiful sunset and sounds of waves.   There are no balcony rooms (I asked the front desk)  you can open the sliding door and it looks like a balcony but you cannot step outside.  The wifi was very spotty and my first night I could not login and had to go downstairs and they referred me to the IT desk which has a message regarding what to do if having issues and I was able to get in with no issues after.   However it was still spotty on our phones.  There was not any hand soap or wash clothes and when I asked housekeeping she was able to produce one bar and must have found some because she left a supply the next day.  Housekeeping was very good.  This is a convention hotel, there was 1 or 2 everyday of our stay and it is a bigger hotel, we had to take two elevators to get to our room.  There is also no hot tub by the pool and the one in the spa was not working. There is one big pool and no adult designated pool, it didn't bother me but lots of kids splashing  due to a kiddie party.  The crosswalk to the beach was not open so you had to take the elevator and cross the street, not a big deal but lots of...We had a lovely beachfront room and who doesn't like waking up to a beautiful sunset and sounds of waves.   There are no balcony rooms (I asked the front desk)  you can open the sliding door and it looks like a balcony but you cannot step outside.  The wifi was very spotty and my first night I could not login and had to go downstairs and they referred me to the IT desk which has a message regarding what to do if having issues and I was able to get in with no issues after.   However it was still spotty on our phones.  There was not any hand soap or wash clothes and when I asked housekeeping she was able to produce one bar and must have found some because she left a supply the next day.  Housekeeping was very good.  This is a convention hotel, there was 1 or 2 everyday of our stay and it is a bigger hotel, we had to take two elevators to get to our room.  There is also no hot tub by the pool and the one in the spa was not working. There is one big pool and no adult designated pool, it didn't bother me but lots of kids splashing  due to a kiddie party.  The crosswalk to the beach was not open so you had to take the elevator and cross the street, not a big deal but lots of seaweed on the beach.   You would see people go down and than return to the pool area.   There is a Starbucks downstairs and close to lots of restaurants, however I will try another hotel my next visit.  I missed having that outside balcony!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r624016292-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>624016292</t>
+  </si>
+  <si>
+    <t>10/11/2018</t>
+  </si>
+  <si>
+    <t>Great overall experience</t>
+  </si>
+  <si>
+    <t>We had a team conference at the hotel. Iris on the check-in team was fabulous and handled everything quickly and patiently.  The hotel GM passed through the event several times a day and asked folks at random how things were going and if there was anything they could do to make things better. This was awesome! Finally, the food was some of the best convention food I have ever had. Chicken was served several times and was always moist and tender - not typical for convention food! Overall the meals were well prepared and the facilities and service was top notch!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r623968887-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>623968887</t>
+  </si>
+  <si>
+    <t>Fantastic Service</t>
+  </si>
+  <si>
+    <t>Great hotel - modern, clean and right across from the beach.  Nothing too much trouble and very friendly staff. We had terrific service, particularly at the excellent buffet breakfast from Nelson and his colleagues.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r623859742-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>623859742</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>Iris is amazing</t>
+  </si>
+  <si>
+    <t>Newly renovated rooms in the with tower. Best of all Iris at the front desk was welcoming, hospitable and knowledgeable of the surrounding area! Her service set the tone for the remainder of my stay! Amazing customer service and a warm smile everyday I saw her!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r623620846-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>623620846</t>
+  </si>
+  <si>
+    <t>10/09/2018</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>The hotel is old  but has been updated. The food and bar area were nice with excellent service. The room was clean and comfortable. The bet part of this Westin was the friendliness and helpfulness of the staff. The service was excellent and we enjoyed everyone that we  came in contact with each and everyday. I especially want to point out Timothy Boyce (we are going to email him for suggestions when we go to South Africa), Judy at the pool took care of us like royalty, Samson made sure our omelet was perfect with a smile and song in his heart, Skeeter our waitress had an infectious smile and served our food very efficiently and Xavier, Melissa and Courtney, the front desk staff could not help us enough!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is old  but has been updated. The food and bar area were nice with excellent service. The room was clean and comfortable. The bet part of this Westin was the friendliness and helpfulness of the staff. The service was excellent and we enjoyed everyone that we  came in contact with each and everyday. I especially want to point out Timothy Boyce (we are going to email him for suggestions when we go to South Africa), Judy at the pool took care of us like royalty, Samson made sure our omelet was perfect with a smile and song in his heart, Skeeter our waitress had an infectious smile and served our food very efficiently and Xavier, Melissa and Courtney, the front desk staff could not help us enough!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r623505587-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>623505587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windy visit. </t>
+  </si>
+  <si>
+    <t>Came here for a long weekend getaway. I’m Marriott Platinum and was warmly welcomed with an oceanfront upgrade. The room was in the north tower and recently renovated. Very comfortable and pleasing accommodations. We were given complimentary breakfast coupons good for the buffet each morning. Meals at the hotel were delicious. A complimentary bottle of water was also left in our room each day. Now, the pool, beach and sun were the main attraction. Each day was very windy with clouds and intermittent sun. No need to rush poolside early as there are many chairs. The staff at the hotel is outstanding. Nothing bad to say about this resort and I will be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Came here for a long weekend getaway. I’m Marriott Platinum and was warmly welcomed with an oceanfront upgrade. The room was in the north tower and recently renovated. Very comfortable and pleasing accommodations. We were given complimentary breakfast coupons good for the buffet each morning. Meals at the hotel were delicious. A complimentary bottle of water was also left in our room each day. Now, the pool, beach and sun were the main attraction. Each day was very windy with clouds and intermittent sun. No need to rush poolside early as there are many chairs. The staff at the hotel is outstanding. Nothing bad to say about this resort and I will be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r623501954-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>623501954</t>
+  </si>
+  <si>
+    <t>Weekend stay before going on a cruise</t>
+  </si>
+  <si>
+    <t>Stayed here for two night prior to going on a cruise out of Port Everglades. Hotel was nice. Fairly cheap taxi/uber ride from airport or cruise port. Hotel clean. Staff we encountered was nice. We had a beach view room but you really had to lean out to see the ocean from our room. It you want to see the ocean, just go on a book a oceanfront room. The restaurant below the hotel, Lona, was delicious. Highly recommend eating here if you stay here (or even if you're just in the Fort Lauderdale Beach area). The reason it is not getting 5 stars is because there is construction ongoing that we were not made aware of. And we were woken up early each morning to what sounded like jackhammering or heavy footsteps in the area right above us so that was rather unpleasant. But aside from that, was a great stay! Would definitely stay here again if returning to Fort Lauderdale.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for two night prior to going on a cruise out of Port Everglades. Hotel was nice. Fairly cheap taxi/uber ride from airport or cruise port. Hotel clean. Staff we encountered was nice. We had a beach view room but you really had to lean out to see the ocean from our room. It you want to see the ocean, just go on a book a oceanfront room. The restaurant below the hotel, Lona, was delicious. Highly recommend eating here if you stay here (or even if you're just in the Fort Lauderdale Beach area). The reason it is not getting 5 stars is because there is construction ongoing that we were not made aware of. And we were woken up early each morning to what sounded like jackhammering or heavy footsteps in the area right above us so that was rather unpleasant. But aside from that, was a great stay! Would definitely stay here again if returning to Fort Lauderdale.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r623488971-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>623488971</t>
+  </si>
+  <si>
+    <t>Long weekend staycation</t>
+  </si>
+  <si>
+    <t>Great ocean view (see photo), chairs available on the beach, &amp; poolside is a good option as well. Storme ‘Stormin’ Doorman’ is just the greatest - love that guy! Always have a fantastic time there with friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r623321734-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>623321734</t>
+  </si>
+  <si>
+    <t>10/08/2018</t>
+  </si>
+  <si>
+    <t>Birthday trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed at this hotel before and this time was the best . I wanted to wake up at the beach for my 50th bday and the Westin did not disappoint. I had the most perfect ocean view room with two windows looking out to the ocean. Everyone is friendly and you always meet interesting people at the pool . Only downside is the pool bar is expensive and felt like they charged more to my room than I actually bought. Would definitely recommend this hotel . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r623266988-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>623266988</t>
+  </si>
+  <si>
+    <t>3 generations girls trip</t>
+  </si>
+  <si>
+    <t>Visited Westin Fort Lauderdale beach resort for three nights 4 days and it was a wonderful weekend.. staff was lovely and accommodating.. pool staff fantastic! My niece left her iPhone on a chair when we went to the beach.. staff kept it safely until we returned ! So thankful. Early check in and late check out were no problem. Our only issue was room housekeeping. Not the most thorough clean of the bathroom and never received adequate number of towels.. that was not a big deal just a little annoying. Perfectly located within walking distance to cute shops (beach gear) and restaurants on a1a. $13 uber ride to/from airport.. easy, fun and relaxing long weekend.Would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Visited Westin Fort Lauderdale beach resort for three nights 4 days and it was a wonderful weekend.. staff was lovely and accommodating.. pool staff fantastic! My niece left her iPhone on a chair when we went to the beach.. staff kept it safely until we returned ! So thankful. Early check in and late check out were no problem. Our only issue was room housekeeping. Not the most thorough clean of the bathroom and never received adequate number of towels.. that was not a big deal just a little annoying. Perfectly located within walking distance to cute shops (beach gear) and restaurants on a1a. $13 uber ride to/from airport.. easy, fun and relaxing long weekend.Would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r623250253-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>623250253</t>
+  </si>
+  <si>
+    <t>The customer service was quite impressive. Ms. Tashelle Whyte handled my check in. She was polite and  professional.</t>
+  </si>
+  <si>
+    <t>The facility is secure, clean and satisfied my expectation.I would certainly stay there again and would be please to recommend the property to my friends and business community. The location is ideal for relaxation after a busy business day.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r623034906-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>623034906</t>
+  </si>
+  <si>
+    <t>10/07/2018</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>The staff was very friendly, the amenities were nice and “Storm” in bell service was awesome, he helped us navigate the hotel for the first time and called to check in on us, he even called to sing my 2 year old happy birthday! I loved the proximity to the beach, the breakfast and the guacamole at Lonas. Family friendly but I could also have a nice time here with just my husband as well. Best of both worlds.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r622708708-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>622708708</t>
+  </si>
+  <si>
+    <t>Girl's vacation</t>
+  </si>
+  <si>
+    <t>My sister-in-law and I got a great deal with an online travel company for the Westin Hotel in Fort Lauderdale.  Really nice hotel, convenient spot on the strip, and clean.  Half of hotel was under construction but that didn't interfere at all with our stay.  We had a couple of  complaints though....after we unpacked everything, we opened the window and our view was a very large bush (we were on the bottom floor).  Also, we had an adjoining room with the construction workers (didn't discover this until the last day) who woke us up every morning banging the door and talking really, really loud.  In the room, the safe did not work. Beach/water was full of seaweed (understand because of time of year) so we just used the beach to sunbathe and then went back to the hotel to go into the pool, which was adequate. The best thing of this trip was the free breakfast, which included buffet and/or sit down hot meal.  All-in-all, everything was great except for the view of the room which I wish we had noticed before unpacking everything, and the adjoining room with the loud construction workers...would go back if the resort fee was waived again amounting to $165....definitely made a difference.MoreShow less</t>
+  </si>
+  <si>
+    <t>My sister-in-law and I got a great deal with an online travel company for the Westin Hotel in Fort Lauderdale.  Really nice hotel, convenient spot on the strip, and clean.  Half of hotel was under construction but that didn't interfere at all with our stay.  We had a couple of  complaints though....after we unpacked everything, we opened the window and our view was a very large bush (we were on the bottom floor).  Also, we had an adjoining room with the construction workers (didn't discover this until the last day) who woke us up every morning banging the door and talking really, really loud.  In the room, the safe did not work. Beach/water was full of seaweed (understand because of time of year) so we just used the beach to sunbathe and then went back to the hotel to go into the pool, which was adequate. The best thing of this trip was the free breakfast, which included buffet and/or sit down hot meal.  All-in-all, everything was great except for the view of the room which I wish we had noticed before unpacking everything, and the adjoining room with the loud construction workers...would go back if the resort fee was waived again amounting to $165....definitely made a difference.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r622657971-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>622657971</t>
+  </si>
+  <si>
+    <t>Friendly staff</t>
+  </si>
+  <si>
+    <t>Had a great time. Room was clean and got extra perks like a room upgrade without asking I assume because time of the year. Would definitely come back. All staff members were very friendly . Restaurant rated top Mexican in the area but we did not eat there</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r622585543-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>622585543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girls weekend </t>
+  </si>
+  <si>
+    <t>Girls weekend to enjoy the Heavenly Spa. Nice hotel, great location but the bathroom doesn’t give much privacy.  Louver doors and a big louver window from bathroom 2 foot from bed? Strange.  Definitely uncomfortable at times.  Would return to the area but will select another hotel because there are many options.  MoreShow less</t>
+  </si>
+  <si>
+    <t>AlinB174, Front Office Manager at The Westin Fort Lauderdale Beach Resort, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Girls weekend to enjoy the Heavenly Spa. Nice hotel, great location but the bathroom doesn’t give much privacy.  Louver doors and a big louver window from bathroom 2 foot from bed? Strange.  Definitely uncomfortable at times.  Would return to the area but will select another hotel because there are many options.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34227-d1190286-r622498883-The_Westin_Fort_Lauderdale_Beach_Resort-Fort_Lauderdale_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>622498883</t>
+  </si>
+  <si>
+    <t>10/05/2018</t>
+  </si>
+  <si>
+    <t>Return Visit To The Westin</t>
+  </si>
+  <si>
+    <t>Our group returned to the Westin for a meeting.  The rooms are very nice.  I have a wonderful view of the ocean.  The hotel has a “beachy feel.”  The property is good for families and business travelers.The meeting rooms are very nice.  The support services are very helpful.There are a lot of great restaurants near by.</t>
+  </si>
   <si>
     <t>STR#</t>
   </si>
@@ -73,81 +563,6 @@
   </si>
   <si>
     <t>https://www.orbitz.com/Fort-Lauderdale-Hotels-The-Westin-Fort-Lauderdale-Beach-Resort.h17159.Hotel-Information</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -521,37 +936,1525 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1353</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" t="s">
+        <v>137</v>
+      </c>
+      <c r="L22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L25" t="s">
+        <v>151</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>152</v>
+      </c>
+      <c r="X25" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -573,79 +2476,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>43</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
